--- a/IZB dashboard/indeling_groepen.xlsx
+++ b/IZB dashboard/indeling_groepen.xlsx
@@ -11,11 +11,14 @@
     <sheet name="Diagnose" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Groepen" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Groepen'!$A$1:$F$64</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="785">
   <si>
     <t xml:space="preserve">ag_naam</t>
   </si>
@@ -1622,6 +1625,9 @@
     <t xml:space="preserve">Mycobacterium infection, unspecified</t>
   </si>
   <si>
+    <t xml:space="preserve">E.coli infection, VTEC</t>
+  </si>
+  <si>
     <t xml:space="preserve">iGAS (Invasive Group A Streptococcal) infection</t>
   </si>
   <si>
@@ -1646,9 +1652,6 @@
     <t xml:space="preserve">E.coli infection, ESBL</t>
   </si>
   <si>
-    <t xml:space="preserve">E.coli infection, VTEC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pneumokokken</t>
   </si>
   <si>
@@ -2039,48 +2042,48 @@
     <t xml:space="preserve">Dengue haemorrhagic fever</t>
   </si>
   <si>
+    <t xml:space="preserve">Viral haemorrhagic fever, unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disseminated tuberculosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuberculosis, active respiratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuberculosis, bone and joint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuberculosis, latent respiratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuberculosis, menigeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuberculosis, peripheral lymph node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.coli infection, VTEC O157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haemophilus influenzae infection, specified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haemophilus meningitis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haemophilus pneumonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haemophilus septicaemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acute Epiglottitis with obstruction</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hantavirus Haemorrhagic fever with renal syndrome</t>
   </si>
   <si>
-    <t xml:space="preserve">Viral haemorrhagic fever, unspecified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disseminated tuberculosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuberculosis, active respiratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuberculosis, bone and joint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuberculosis, latent respiratory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuberculosis, menigeal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuberculosis, peripheral lymph node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.coli infection, VTEC O157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haemophilus influenzae infection, specified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haemophilus meningitis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haemophilus pneumonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haemophilus septicaemia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acute Epiglottitis with obstruction</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hantavirus Nefritis</t>
   </si>
   <si>
@@ -2276,7 +2279,7 @@
     <t xml:space="preserve">Ebola Haemorrhagic Fever, Marburg Haemorrhagic Fever, Lassa fever, Crimean-Congo haemorrhagic fever, Viral Haemorrhagic Fever</t>
   </si>
   <si>
-    <t xml:space="preserve">Crimean-Congo haemorrhagic fever, Dengue haemorrhagic fever, Marburg virus disease, Lassa fever, Hantavirus Haemorrhagic fever with renal syndrome, Ebola virus disease, Viral haemorrhagic fever, unspecified</t>
+    <t xml:space="preserve">Crimean-Congo haemorrhagic fever, Dengue haemorrhagic fever, Marburg virus disease, Lassa fever, Ebola virus disease, Viral haemorrhagic fever, unspecified</t>
   </si>
   <si>
     <t xml:space="preserve">Corynebacterium non-toxigenic infection, Diphtheria</t>
@@ -2291,16 +2294,16 @@
     <t xml:space="preserve">Escherichia coli O157, Escherichia coli, other/unspecified, Escherichia spp, other/unspecified</t>
   </si>
   <si>
+    <t xml:space="preserve">E.coli infection, VTEC, E.coli infection, VTEC O157</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">E.coli infection, VTEC, E.coli infection, VTEC O157</t>
-  </si>
-  <si>
     <t xml:space="preserve">Haemophilus influenzae infection, specified, Haemophilus meningitis, Haemophilus pneumonia, Haemophilus septicaemia, Acute Epiglottitis with obstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Hantavirus Nefritis, Hantavirus pulmonary syndrome (HPS)</t>
+    <t xml:space="preserve">Hantavirus Haemorrhagic fever with renal syndrome, Hantavirus Nefritis, Hantavirus pulmonary syndrome (HPS)</t>
   </si>
   <si>
     <t xml:space="preserve">Hepatitis B (with D), acute, Hepatitis B (with D), chronic, Hepatitis B, acute, Hepatitis B, chronic, Hepatitis B, unspecified</t>
@@ -2360,7 +2363,16 @@
     <t xml:space="preserve">Scabies, Scabiës crustosa, Scabiës, unspecified</t>
   </si>
   <si>
-    <t xml:space="preserve">E.coli infection, E.coli infection, ESBL, E.coli infection, VTEC</t>
+    <t xml:space="preserve">E.coli infection, E.coli infection, ESBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRMO, other</t>
   </si>
 </sst>
 </file>
@@ -5367,6 +5379,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D222"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -5946,91 +5959,91 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>521</v>
+        <v>353</v>
       </c>
       <c r="B95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>58</v>
+        <v>355</v>
       </c>
       <c r="B96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>362</v>
+        <v>521</v>
       </c>
       <c r="B98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>365</v>
+        <v>522</v>
       </c>
       <c r="B99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>367</v>
+        <v>58</v>
       </c>
       <c r="B100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="B105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="B106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="B107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>522</v>
+        <v>380</v>
       </c>
       <c r="B108"/>
     </row>
@@ -6042,139 +6055,139 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>523</v>
+        <v>401</v>
       </c>
       <c r="B110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>408</v>
+        <v>523</v>
       </c>
       <c r="B111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>524</v>
+        <v>410</v>
       </c>
       <c r="B113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>415</v>
+        <v>524</v>
       </c>
       <c r="B114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="B116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>475</v>
+        <v>423</v>
       </c>
       <c r="B117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="B118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>373</v>
+        <v>525</v>
       </c>
       <c r="B119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>525</v>
+        <v>428</v>
       </c>
       <c r="B120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B123"/>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>435</v>
+        <v>526</v>
       </c>
       <c r="B125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B127"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>528</v>
+        <v>437</v>
       </c>
       <c r="B128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B129"/>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="B130"/>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="B131"/>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="B132"/>
     </row>
@@ -6424,55 +6437,55 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>203</v>
+        <v>535</v>
       </c>
       <c r="B167" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B168" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B169" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B170" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="B171" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B172" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B173" t="s">
         <v>240</v>
@@ -6480,231 +6493,231 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B174" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B175" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B176" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
       <c r="B177" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>274</v>
+        <v>335</v>
       </c>
       <c r="B178" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B179" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="B180" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>388</v>
+        <v>293</v>
       </c>
       <c r="B181" t="s">
-        <v>390</v>
+        <v>294</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>503</v>
+        <v>388</v>
       </c>
       <c r="B182" t="s">
-        <v>504</v>
+        <v>390</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>87</v>
+        <v>503</v>
       </c>
       <c r="B183" t="s">
-        <v>88</v>
+        <v>504</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B184" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>357</v>
+        <v>123</v>
       </c>
       <c r="B185" t="s">
-        <v>358</v>
+        <v>124</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="B186" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>283</v>
+        <v>383</v>
       </c>
       <c r="B187" t="s">
-        <v>283</v>
+        <v>384</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
       <c r="B188" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B189" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>487</v>
+        <v>419</v>
       </c>
       <c r="B190" t="s">
-        <v>488</v>
+        <v>421</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>535</v>
+        <v>487</v>
       </c>
       <c r="B191" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>110</v>
+        <v>536</v>
       </c>
       <c r="B192" t="s">
-        <v>110</v>
+        <v>438</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>464</v>
+        <v>110</v>
       </c>
       <c r="B193" t="s">
-        <v>465</v>
+        <v>110</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>186</v>
+        <v>464</v>
       </c>
       <c r="B194" t="s">
-        <v>186</v>
+        <v>465</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>397</v>
+        <v>186</v>
       </c>
       <c r="B195" t="s">
-        <v>399</v>
+        <v>186</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>494</v>
+        <v>397</v>
       </c>
       <c r="B196" t="s">
-        <v>496</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>51</v>
+        <v>494</v>
       </c>
       <c r="B197" t="s">
-        <v>53</v>
+        <v>496</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>498</v>
+        <v>51</v>
       </c>
       <c r="B198" t="s">
-        <v>499</v>
+        <v>53</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B199" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>69</v>
+        <v>508</v>
       </c>
       <c r="B200" t="s">
-        <v>70</v>
+        <v>509</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B201" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B202" t="s">
         <v>119</v>
@@ -6712,31 +6725,31 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="B203" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>286</v>
+        <v>217</v>
       </c>
       <c r="B204" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>395</v>
+        <v>286</v>
       </c>
       <c r="B205" t="s">
-        <v>393</v>
+        <v>287</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B206" t="s">
         <v>393</v>
@@ -6744,23 +6757,23 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B207" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>20</v>
+        <v>406</v>
       </c>
       <c r="B208" t="s">
-        <v>536</v>
+        <v>406</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B209" t="s">
         <v>537</v>
@@ -6768,7 +6781,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="B210" t="s">
         <v>538</v>
@@ -6776,7 +6789,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B211" t="s">
         <v>539</v>
@@ -6784,7 +6797,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="B212" t="s">
         <v>540</v>
@@ -6792,7 +6805,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="B213" t="s">
         <v>541</v>
@@ -6800,10 +6813,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
+        <v>175</v>
+      </c>
+      <c r="B214" t="s">
         <v>542</v>
-      </c>
-      <c r="B214" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="215">
@@ -6811,7 +6824,7 @@
         <v>543</v>
       </c>
       <c r="B215" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="216">
@@ -6831,6 +6844,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B217"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -8174,7 +8188,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>674</v>
+        <v>152</v>
       </c>
       <c r="B214" t="s">
         <v>129</v>
@@ -8182,7 +8196,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>152</v>
+        <v>674</v>
       </c>
       <c r="B215" t="s">
         <v>129</v>
@@ -8190,23 +8204,23 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>675</v>
+        <v>117</v>
       </c>
       <c r="B216" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>117</v>
+        <v>675</v>
       </c>
       <c r="B217" t="s">
-        <v>118</v>
+        <v>302</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>676</v>
+        <v>301</v>
       </c>
       <c r="B218" t="s">
         <v>302</v>
@@ -8214,7 +8228,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>301</v>
+        <v>676</v>
       </c>
       <c r="B219" t="s">
         <v>302</v>
@@ -8254,15 +8268,15 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>681</v>
+        <v>535</v>
       </c>
       <c r="B224" t="s">
-        <v>302</v>
+        <v>173</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>543</v>
+        <v>681</v>
       </c>
       <c r="B225" t="s">
         <v>173</v>
@@ -8273,7 +8287,7 @@
         <v>682</v>
       </c>
       <c r="B226" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="227">
@@ -8313,7 +8327,7 @@
         <v>687</v>
       </c>
       <c r="B231" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="232">
@@ -8981,6 +8995,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B314"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -9234,10 +9249,10 @@
         <v>757</v>
       </c>
       <c r="E12" t="s">
+        <v>535</v>
+      </c>
+      <c r="F12" t="s">
         <v>758</v>
-      </c>
-      <c r="F12" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="13">
@@ -9254,7 +9269,7 @@
         <v>197</v>
       </c>
       <c r="E13" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F13" t="s">
         <v>760</v>
@@ -9571,10 +9586,10 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E29" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F29" t="s">
         <v>771</v>
@@ -9754,7 +9769,7 @@
         <v>436</v>
       </c>
       <c r="E38" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F38" t="s">
         <v>773</v>
@@ -9932,7 +9947,7 @@
         <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F47" t="s">
         <v>775</v>
@@ -10051,17 +10066,17 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C54"/>
       <c r="D54" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E54" t="s">
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="55">
@@ -10069,17 +10084,17 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C55"/>
       <c r="D55" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E55" t="s">
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="56">
@@ -10087,17 +10102,17 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C56"/>
       <c r="D56" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E56" t="s">
         <v>84</v>
       </c>
       <c r="F56" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="57">
@@ -10105,17 +10120,17 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C57"/>
       <c r="D57" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E57" t="s">
         <v>101</v>
       </c>
       <c r="F57" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="58">
@@ -10123,17 +10138,17 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C58"/>
       <c r="D58" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E58" t="s">
         <v>133</v>
       </c>
       <c r="F58" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="59">
@@ -10141,17 +10156,17 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C59"/>
       <c r="D59" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E59" t="s">
         <v>781</v>
       </c>
       <c r="F59" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="60">
@@ -10163,13 +10178,13 @@
       </c>
       <c r="C60"/>
       <c r="D60" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E60" t="s">
         <v>339</v>
       </c>
       <c r="F60" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="61">
@@ -10181,458 +10196,78 @@
       </c>
       <c r="C61"/>
       <c r="D61" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E61" t="s">
         <v>453</v>
       </c>
       <c r="F61" t="s">
-        <v>758</v>
+        <v>759</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>81</v>
+      </c>
+      <c r="B62" t="s">
+        <v>782</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>759</v>
+      </c>
+      <c r="E62" t="s">
+        <v>759</v>
+      </c>
+      <c r="F62" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>82</v>
+      </c>
+      <c r="B63" t="s">
+        <v>783</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>759</v>
+      </c>
+      <c r="E63" t="s">
+        <v>759</v>
+      </c>
+      <c r="F63" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>784</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>759</v>
+      </c>
+      <c r="E64" t="s">
+        <v>759</v>
+      </c>
+      <c r="F64" t="s">
+        <v>759</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F64"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Standaard document" ma:contentTypeID="0x010100EB1156A52E00EB4395F9F08155F19D3F00D5E105B047D24044BF0C80B99E2D212C" ma:contentTypeVersion="52" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="374a25325ce52c2d4a3fa55ab77c115e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c176890d-beb6-499e-9aaf-2235992bf932" xmlns:ns3="6b7ccdb7-be06-4889-b8b6-37b61da2ac22" xmlns:ns4="5cd3556a-8845-4381-9ab1-80dc7cf34289" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8739496a037f9d07d403c1dcdedb61bf" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="c176890d-beb6-499e-9aaf-2235992bf932"/>
-    <xsd:import namespace="6b7ccdb7-be06-4889-b8b6-37b61da2ac22"/>
-    <xsd:import namespace="5cd3556a-8845-4381-9ab1-80dc7cf34289"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:Proces" minOccurs="0"/>
-                <xsd:element ref="ns2:Documentstatus" minOccurs="0"/>
-                <xsd:element ref="ns2:Behandelaar" minOccurs="0"/>
-                <xsd:element ref="ns2:Startdatum" minOccurs="0"/>
-                <xsd:element ref="ns2:Afhandeldatum" minOccurs="0"/>
-                <xsd:element ref="ns2:Behandelstatus" minOccurs="0"/>
-                <xsd:element ref="ns2:Organisatie" minOccurs="0"/>
-                <xsd:element ref="ns2:Gecontroleerd_x0020_door_x0020_informatiebeheer" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocId" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdUrl" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdPersistId" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c176890d-beb6-499e-9aaf-2235992bf932" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="Proces" ma:index="8" nillable="true" ma:displayName="Proces" ma:format="Dropdown" ma:internalName="Proces" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Adressenbeheer (1 jaar)"/>
-          <xsd:enumeration value="Advisering bij interne en externe organisaties, instellingen en evenementen (5 jaar)"/>
-          <xsd:enumeration value="Afhandeling van publieksvragen (1 jaar)"/>
-          <xsd:enumeration value="Bestuur en beleid (Permanent bewaren)"/>
-          <xsd:enumeration value="Contractbeheer (10 jaar)"/>
-          <xsd:enumeration value="Corrigerende en preventieve maatregelen (Permanent bewaren)"/>
-          <xsd:enumeration value="Extern overleg voeren (secretariaat bij andere organisatie) (1 jaar)"/>
-          <xsd:enumeration value="Extern overleg voeren (secretariaat voerend) (Permanent bewaren)"/>
-          <xsd:enumeration value="Externe audits (Permanent bewaren)"/>
-          <xsd:enumeration value="Gezondheidsonderzoek uitvoeren (Permanent bewaren)"/>
-          <xsd:enumeration value="Goederen- en instrumentenbeheer (5 jaar)"/>
-          <xsd:enumeration value="Hotspot (Permanent bewaren)"/>
-          <xsd:enumeration value="Infectieziekten bestrijding (Permanent bewaren)"/>
-          <xsd:enumeration value="Infectieziekten surveillance (5 jaar)"/>
-          <xsd:enumeration value="Interne (team)overleggen (1 jaar)"/>
-          <xsd:enumeration value="Interne audits (10 jaar)"/>
-          <xsd:enumeration value="Klant(tevredenheids)onderzoek (10 jaar)"/>
-          <xsd:enumeration value="Medische incident en calamiteiten melding (MIC) (5 jaar)"/>
-          <xsd:enumeration value="Opleiden en trainen van externen (5 jaar)"/>
-          <xsd:enumeration value="Opleiden, trainen, voorlichten en oefenen van eigen medewerkers (5 jaar)"/>
-          <xsd:enumeration value="Organiseren van activiteiten voor personeel (7 jaar)"/>
-          <xsd:enumeration value="Planning en roosters opstellen (7 jaar)"/>
-          <xsd:enumeration value="Planning, control en rapportage (Permanent bewaren)"/>
-          <xsd:enumeration value="Preventie en voorlichting geven (10 jaar)"/>
-          <xsd:enumeration value="Procesbeschrijvingen (Permanent bewaren)"/>
-          <xsd:enumeration value="Projecten uitvoeren (Afhankelijk van onderwerp)"/>
-          <xsd:enumeration value="Protocollen (10 jaar)"/>
-          <xsd:enumeration value="Rijksvaccinatieprogramma uitvoeren (RVP) (20 jaar)"/>
-          <xsd:enumeration value="Risicomanagement (10 jaar)"/>
-          <xsd:enumeration value="Stageplaatsen organiseren (10 jaar)"/>
-          <xsd:enumeration value="Verkoopcontracten en Subsidieaanvragen (10 jaar)"/>
-          <xsd:enumeration value="Werkinstructies (5 jaar)"/>
-          <xsd:enumeration value="Werving van personeel (10 jaar)"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Documentstatus" ma:index="9" nillable="true" ma:displayName="Documentstatus" ma:format="Dropdown" ma:internalName="Documentstatus" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Concept"/>
-          <xsd:enumeration value="Definitief"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Behandelaar" ma:index="10" nillable="true" ma:displayName="Behandelaar" ma:SearchPeopleOnly="false" ma:SharePointGroup="0" ma:internalName="Behandelaar" ma:readOnly="false" ma:showField="ImnName">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:User">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="Startdatum" ma:index="11" nillable="true" ma:displayName="Startdatum" ma:format="DateOnly" ma:internalName="Startdatum" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Afhandeldatum" ma:index="12" nillable="true" ma:displayName="Afhandeldatum" ma:format="DateOnly" ma:internalName="Afhandeldatum" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:DateTime"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Behandelstatus" ma:index="13" nillable="true" ma:displayName="Behandelstatus" ma:format="Dropdown" ma:internalName="Behandelstatus" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="In behandeling"/>
-          <xsd:enumeration value="Afgehandeld"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Organisatie" ma:index="14" nillable="true" ma:displayName="Organisatie" ma:default="NOG" ma:format="Dropdown" ma:internalName="Organisatie" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="HSC"/>
-          <xsd:enumeration value="HVB"/>
-          <xsd:enumeration value="NOG"/>
-          <xsd:enumeration value="RAV"/>
-          <xsd:enumeration value="WB"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Gecontroleerd_x0020_door_x0020_informatiebeheer" ma:index="15" nillable="true" ma:displayName="Gecontroleerd door informatiebeheer" ma:format="Dropdown" ma:internalName="Gecontroleerd_x0020_door_x0020_informatiebeheer" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Ja"/>
-          <xsd:enumeration value="Nee"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Gedeeld met" ma:SearchPeopleOnly="false" ma:SharePointGroup="0" ma:internalName="SharedWithUsers" ma:readOnly="true" ma:showField="ImnName">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Gedeeld met details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocId" ma:index="30" nillable="true" ma:displayName="Waarde van de document-id" ma:description="De waarde van de document-id die aan dit item is toegewezen." ma:indexed="true" ma:internalName="_dlc_DocId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdUrl" ma:index="31" nillable="true" ma:displayName="Document-id" ma:description="Permanente koppeling naar dit document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:URL">
-            <xsd:sequence>
-              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
-              <xsd:element name="Description" type="xsd:string" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdPersistId" ma:index="32" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6b7ccdb7-be06-4889-b8b6-37b61da2ac22" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="18" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="19" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="21" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="22" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="24" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="8cd2f11b-e0e3-409a-841c-e0a0fdabfd77" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="28" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="29" nillable="true" ma:displayName="Location" ma:description="" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5cd3556a-8845-4381-9ab1-80dc7cf34289" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="27" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ede6e2ce-8de0-4978-aa5a-0c94f0a722e0}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="c176890d-beb6-499e-9aaf-2235992bf932">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhoudstype"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{459C5599-3F5E-4833-BD7C-B21BA70869E4}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D1AFE4E-4C56-454A-9D54-765601296F5B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BCCC0F7-BA6E-4932-8377-D36287418132}"/>
 </file>